--- a/automation_vt_04/coding automation v-5/excel_vt_automation/Input.xlsx
+++ b/automation_vt_04/coding automation v-5/excel_vt_automation/Input.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="188">
   <si>
     <t>Domain</t>
   </si>
@@ -22,214 +22,559 @@
     <t>VT_Score</t>
   </si>
   <si>
+    <t>lajoex.com</t>
+  </si>
+  <si>
     <t>metrodata.co.id</t>
   </si>
   <si>
+    <t>gmail.com</t>
+  </si>
+  <si>
+    <t>yammer.com</t>
+  </si>
+  <si>
+    <t>ptcn.id</t>
+  </si>
+  <si>
+    <t>wblacknet-224.top</t>
+  </si>
+  <si>
+    <t>bankmandiri.co.id</t>
+  </si>
+  <si>
+    <t>mairodi-training.com</t>
+  </si>
+  <si>
+    <t>thecenbizglobal.com</t>
+  </si>
+  <si>
+    <t>otcsb.com.my</t>
+  </si>
+  <si>
+    <t>assessment.co.id</t>
+  </si>
+  <si>
+    <t>indosecsummit.com</t>
+  </si>
+  <si>
     <t>inovatrack.com</t>
   </si>
   <si>
-    <t>mf-yl.cn</t>
-  </si>
-  <si>
-    <t>gmail.com</t>
-  </si>
-  <si>
-    <t>mairodi-training.com</t>
-  </si>
-  <si>
-    <t>tokopedia.com</t>
-  </si>
-  <si>
-    <t>mbacoursess.com</t>
+    <t>loyotrans.com.cn</t>
+  </si>
+  <si>
+    <t>mllmetal.cn</t>
+  </si>
+  <si>
+    <t>sig.id</t>
+  </si>
+  <si>
+    <t>linkedin.com</t>
+  </si>
+  <si>
+    <t>scraiford.com</t>
+  </si>
+  <si>
+    <t>databreachtoday.com</t>
+  </si>
+  <si>
+    <t>transportsmolina.es</t>
+  </si>
+  <si>
+    <t>sea.humanresourcesonline.net</t>
   </si>
   <si>
     <t>thuvienphapluat.vn</t>
   </si>
   <si>
-    <t>disasterclimatetechhub.org</t>
-  </si>
-  <si>
-    <t>coreventsduae.com</t>
-  </si>
-  <si>
-    <t>bestqtf.com</t>
-  </si>
-  <si>
-    <t>kadunaelectric.com</t>
-  </si>
-  <si>
-    <t>eggmoo.com</t>
-  </si>
-  <si>
-    <t>sig.id</t>
-  </si>
-  <si>
-    <t>lagsedge.com</t>
-  </si>
-  <si>
-    <t>yammer.com</t>
+    <t>itbusinesstoday.jmsend.com</t>
+  </si>
+  <si>
+    <t>info.bank-danamon.com</t>
+  </si>
+  <si>
+    <t>indobaruna.com</t>
+  </si>
+  <si>
+    <t>mermaidclothing.in</t>
+  </si>
+  <si>
+    <t>datainfomatric.com</t>
+  </si>
+  <si>
+    <t>c6.icoremail.net</t>
+  </si>
+  <si>
+    <t>360tf.trade</t>
+  </si>
+  <si>
+    <t>leadecisint.com</t>
+  </si>
+  <si>
+    <t>email-marriott.com</t>
+  </si>
+  <si>
+    <t>imsalud.gov.co</t>
+  </si>
+  <si>
+    <t>hiringintent.com</t>
+  </si>
+  <si>
+    <t>mitrasoftcloud.com</t>
+  </si>
+  <si>
+    <t>padiumkm.id</t>
+  </si>
+  <si>
+    <t>crmdatas.com</t>
+  </si>
+  <si>
+    <t>ai-oxfordmanagement.com</t>
+  </si>
+  <si>
+    <t>levelupcep.com</t>
+  </si>
+  <si>
+    <t>rsmspca.com</t>
+  </si>
+  <si>
+    <t>minhlongmsc.com</t>
+  </si>
+  <si>
+    <t>otcmsdnbhd.com.my</t>
+  </si>
+  <si>
+    <t>mordorintelligence.co.in</t>
+  </si>
+  <si>
+    <t>huayufloors.info</t>
+  </si>
+  <si>
+    <t>corevetraining.com</t>
+  </si>
+  <si>
+    <t>dbmarketinsights.com</t>
+  </si>
+  <si>
+    <t>notice.alibaba.com</t>
+  </si>
+  <si>
+    <t>silits.com</t>
+  </si>
+  <si>
+    <t>mg-eu.jkp.go.id</t>
+  </si>
+  <si>
+    <t>em.atlassian.com</t>
+  </si>
+  <si>
+    <t>galleria.co.id</t>
+  </si>
+  <si>
+    <t>promotion.cermati.com</t>
+  </si>
+  <si>
+    <t>ingenium-asia.net</t>
+  </si>
+  <si>
+    <t>divenewsletter.com</t>
+  </si>
+  <si>
+    <t>erafone.com</t>
+  </si>
+  <si>
+    <t>datsesbb.com</t>
+  </si>
+  <si>
+    <t>sg.newsletter.agoda-emails.com</t>
+  </si>
+  <si>
+    <t>future-progression.com</t>
+  </si>
+  <si>
+    <t>nsashipping.com</t>
+  </si>
+  <si>
+    <t>prodmail52b.sapsf.com</t>
+  </si>
+  <si>
+    <t>SIG.ID</t>
+  </si>
+  <si>
+    <t>iaijakarta.or.id</t>
+  </si>
+  <si>
+    <t>researchdatabridge.com</t>
+  </si>
+  <si>
+    <t>126.com</t>
+  </si>
+  <si>
+    <t>ss.phuocbinh.edu.vn</t>
+  </si>
+  <si>
+    <t>apartmentmgr.com</t>
+  </si>
+  <si>
+    <t>noun.edu.ng</t>
+  </si>
+  <si>
+    <t>webizsync.com</t>
+  </si>
+  <si>
+    <t>citadel-stone.com</t>
+  </si>
+  <si>
+    <t>info.fekwj.com</t>
+  </si>
+  <si>
+    <t>info.cnyongyang.net</t>
+  </si>
+  <si>
+    <t>pm.ce.gov.br</t>
+  </si>
+  <si>
+    <t>info.doefz.com</t>
+  </si>
+  <si>
+    <t>9pz.org</t>
+  </si>
+  <si>
+    <t>itiworkspace.com</t>
+  </si>
+  <si>
+    <t>NACVA.com</t>
+  </si>
+  <si>
+    <t>info.iazfa.com</t>
+  </si>
+  <si>
+    <t>info.xingkong98.com</t>
+  </si>
+  <si>
+    <t>kyrng.com</t>
+  </si>
+  <si>
+    <t>gautamindustrial.com</t>
+  </si>
+  <si>
+    <t>fissiontechs.com</t>
+  </si>
+  <si>
+    <t>info.hgqjs23rxm.asia</t>
+  </si>
+  <si>
+    <t>mailer.apps.disneyplus.com</t>
+  </si>
+  <si>
+    <t>promotion.indodana.id</t>
+  </si>
+  <si>
+    <t>ictpresswire.com</t>
+  </si>
+  <si>
+    <t>gramedia.com</t>
+  </si>
+  <si>
+    <t>cenbizzglobalinc.com</t>
+  </si>
+  <si>
+    <t>mermaidchart.com</t>
+  </si>
+  <si>
+    <t>info.zhaoshengco.com</t>
+  </si>
+  <si>
+    <t>theartofservice.com</t>
+  </si>
+  <si>
+    <t>unisprime.com</t>
+  </si>
+  <si>
+    <t>stradevn.com</t>
+  </si>
+  <si>
+    <t>helpslearn.com</t>
+  </si>
+  <si>
+    <t>fibonaccation.com</t>
+  </si>
+  <si>
+    <t>coreventehs.com</t>
+  </si>
+  <si>
+    <t>globalindustryreport.com</t>
+  </si>
+  <si>
+    <t>emplifi.io</t>
+  </si>
+  <si>
+    <t>fokus-target.com</t>
+  </si>
+  <si>
+    <t>panoramamedia.co.id</t>
+  </si>
+  <si>
+    <t>topstrends.click</t>
+  </si>
+  <si>
+    <t>thomsonreuters.com</t>
+  </si>
+  <si>
+    <t>kognics.io</t>
+  </si>
+  <si>
+    <t>sales.beiyut.com</t>
+  </si>
+  <si>
+    <t>deloitte.com</t>
+  </si>
+  <si>
+    <t>targetsecurindo.co.id</t>
+  </si>
+  <si>
+    <t>knowledcer.com</t>
+  </si>
+  <si>
+    <t>mail.tokocrypto.com</t>
+  </si>
+  <si>
+    <t>maintonia.com</t>
+  </si>
+  <si>
+    <t>info.rxhuabonews.com</t>
+  </si>
+  <si>
+    <t>factrspacemfg.com</t>
+  </si>
+  <si>
+    <t>educmastery.com</t>
+  </si>
+  <si>
+    <t>primariesws.com</t>
+  </si>
+  <si>
+    <t>14D206.clients.bmsend.com</t>
+  </si>
+  <si>
+    <t>nanomatrixsecure.net</t>
+  </si>
+  <si>
+    <t>globalspecworks.co</t>
+  </si>
+  <si>
+    <t>indoteknologi.com</t>
+  </si>
+  <si>
+    <t>rrrrv.com</t>
+  </si>
+  <si>
+    <t>swr2.ac.th</t>
+  </si>
+  <si>
+    <t>outlook.com</t>
+  </si>
+  <si>
+    <t>SG2.SGGRP.COM</t>
+  </si>
+  <si>
+    <t>pm.df.gov.br</t>
+  </si>
+  <si>
+    <t>edologs.com</t>
+  </si>
+  <si>
+    <t>info.lightlove14.cn</t>
+  </si>
+  <si>
+    <t>premierglobalbd.com</t>
+  </si>
+  <si>
+    <t>info.nbjmjg.com</t>
+  </si>
+  <si>
+    <t>welevelskill.com</t>
+  </si>
+  <si>
+    <t>couserasz.com</t>
+  </si>
+  <si>
+    <t>tuyensinh247.com</t>
+  </si>
+  <si>
+    <t>1vilt.com</t>
+  </si>
+  <si>
+    <t>info.qiyuanwenxin.com</t>
+  </si>
+  <si>
+    <t>marketing.poems.com.sg</t>
+  </si>
+  <si>
+    <t>newsletter.bankmega.com</t>
+  </si>
+  <si>
+    <t>mkt.atome.id</t>
+  </si>
+  <si>
+    <t>tasks.clickup.com</t>
+  </si>
+  <si>
+    <t>promo.bluebirdgroup.com</t>
+  </si>
+  <si>
+    <t>planner.office365.com</t>
+  </si>
+  <si>
+    <t>notifikasi.kemenperin.go.id</t>
+  </si>
+  <si>
+    <t>bf06x.hs-send.com</t>
+  </si>
+  <si>
+    <t>sharepointonline.com</t>
   </si>
   <si>
     <t>marketing.go-jek.com</t>
   </si>
   <si>
-    <t>d.kajabimail.net</t>
-  </si>
-  <si>
-    <t>novaztrain.com</t>
-  </si>
-  <si>
-    <t>edzvcx.homes</t>
-  </si>
-  <si>
-    <t>webizsync.com</t>
-  </si>
-  <si>
-    <t>jabarprov.go.id</t>
-  </si>
-  <si>
-    <t>future-progression.com</t>
-  </si>
-  <si>
-    <t>rrrrv.com</t>
-  </si>
-  <si>
-    <t>ai-oxfordmanagement.com</t>
+    <t>petrosstones.com</t>
+  </si>
+  <si>
+    <t>semilabtion.com</t>
+  </si>
+  <si>
+    <t>mail.erajaya.com</t>
+  </si>
+  <si>
+    <t>info.caribouinfo.com</t>
+  </si>
+  <si>
+    <t>lizhan-hardware.net</t>
+  </si>
+  <si>
+    <t>info.vfbok.com</t>
+  </si>
+  <si>
+    <t>kompas.com</t>
+  </si>
+  <si>
+    <t>triparticorp.com</t>
+  </si>
+  <si>
+    <t>info.dcaik.com</t>
+  </si>
+  <si>
+    <t>exiosolutions.org</t>
+  </si>
+  <si>
+    <t>eengineersclass.com</t>
   </si>
   <si>
     <t>connectlearns.com</t>
   </si>
   <si>
-    <t>linkedin.com</t>
-  </si>
-  <si>
-    <t>trainingindustry.com</t>
-  </si>
-  <si>
-    <t>jatourandtravels.com</t>
-  </si>
-  <si>
-    <t>avicenna.ac.ir</t>
-  </si>
-  <si>
-    <t>coreventsdxb.com</t>
-  </si>
-  <si>
-    <t>glomacstraining.com</t>
-  </si>
-  <si>
-    <t>jxazz.com</t>
-  </si>
-  <si>
-    <t>edologs.com</t>
-  </si>
-  <si>
-    <t>gmx.de</t>
-  </si>
-  <si>
-    <t>SG2.SGGRP.COM</t>
-  </si>
-  <si>
-    <t>gdte.org.cn</t>
-  </si>
-  <si>
-    <t>learn.mygreatlearning.com</t>
-  </si>
-  <si>
-    <t>deloitte.com</t>
-  </si>
-  <si>
-    <t>altexsoft.com</t>
-  </si>
-  <si>
-    <t>info.about47.com</t>
-  </si>
-  <si>
-    <t>bni.co.id</t>
-  </si>
-  <si>
-    <t>em.atlassian.com</t>
-  </si>
-  <si>
-    <t>students.um.ac.id</t>
-  </si>
-  <si>
-    <t>wdik.com</t>
-  </si>
-  <si>
-    <t>impactfulrise.com</t>
-  </si>
-  <si>
-    <t>promo.kompas.id</t>
-  </si>
-  <si>
-    <t>tuyensinh247.com</t>
-  </si>
-  <si>
-    <t>masteredguide.com</t>
-  </si>
-  <si>
-    <t>bibit.id</t>
-  </si>
-  <si>
-    <t>futuregrail.com</t>
-  </si>
-  <si>
-    <t>mindzallera.com</t>
-  </si>
-  <si>
-    <t>ddwled.com</t>
-  </si>
-  <si>
-    <t>bf06x.hs-send.com</t>
-  </si>
-  <si>
-    <t>em.zalora.co.id</t>
-  </si>
-  <si>
-    <t>sharepointonline.com</t>
-  </si>
-  <si>
-    <t>q-linktech8023.com</t>
-  </si>
-  <si>
-    <t>horizontech4036.com</t>
-  </si>
-  <si>
-    <t>catalystsrvcs7358.com</t>
-  </si>
-  <si>
-    <t>eprospectfinder.com</t>
-  </si>
-  <si>
-    <t>propubs.com</t>
-  </si>
-  <si>
-    <t>jaknot.com</t>
-  </si>
-  <si>
-    <t>ccie4career.com</t>
-  </si>
-  <si>
-    <t>topwillwelding.com</t>
-  </si>
-  <si>
-    <t>corevents-cb.com</t>
-  </si>
-  <si>
-    <t>wallstreetmojo.com</t>
-  </si>
-  <si>
-    <t>swaroopapatrika.pro</t>
-  </si>
-  <si>
-    <t>info.haojiahui.com</t>
-  </si>
-  <si>
-    <t>te.waimaogongshe.cn</t>
-  </si>
-  <si>
-    <t>belamichemical.com</t>
+    <t>info.ultnf.com</t>
+  </si>
+  <si>
+    <t>danamon.co.id</t>
+  </si>
+  <si>
+    <t>premiuminboxesforstartups.info</t>
+  </si>
+  <si>
+    <t>stategises.com</t>
+  </si>
+  <si>
+    <t>9yre.com</t>
+  </si>
+  <si>
+    <t>buccheri.com</t>
+  </si>
+  <si>
+    <t>2coms.com</t>
+  </si>
+  <si>
+    <t>gruger.com.br</t>
+  </si>
+  <si>
+    <t>corevent-kl.com</t>
+  </si>
+  <si>
+    <t>coreventenergy.com</t>
+  </si>
+  <si>
+    <t>aztecoursecom.com</t>
+  </si>
+  <si>
+    <t>breenation.com</t>
+  </si>
+  <si>
+    <t>geniteam.online</t>
+  </si>
+  <si>
+    <t>hondacengkareng.com</t>
+  </si>
+  <si>
+    <t>mirahdevelopments.com</t>
+  </si>
+  <si>
+    <t>cenbizzglobal.com</t>
+  </si>
+  <si>
+    <t>otcmarketing.com.my</t>
+  </si>
+  <si>
+    <t>semenindonesia.com</t>
+  </si>
+  <si>
+    <t>usehybridpayroll.com</t>
+  </si>
+  <si>
+    <t>reportsweb.com</t>
+  </si>
+  <si>
+    <t>xjtagpro.com</t>
+  </si>
+  <si>
+    <t>lonson-recruitment.com</t>
+  </si>
+  <si>
+    <t>email.tradetpt12.com</t>
+  </si>
+  <si>
+    <t>email.tradetplc13.com</t>
+  </si>
+  <si>
+    <t>ytadawul.net</t>
+  </si>
+  <si>
+    <t>transformationinsider.com</t>
+  </si>
+  <si>
+    <t>info.colourfuldl.com</t>
+  </si>
+  <si>
+    <t>ttgstar.com</t>
+  </si>
+  <si>
+    <t>email.tradetpxs10.com</t>
+  </si>
+  <si>
+    <t>info.trasa1a3.com</t>
+  </si>
+  <si>
+    <t>roundtablecourses.com</t>
+  </si>
+  <si>
+    <t>rkdfuniversity.org</t>
+  </si>
+  <si>
+    <t>conventionss.com</t>
+  </si>
+  <si>
+    <t>intisrv.my.id</t>
   </si>
   <si>
     <t/>
@@ -669,1782 +1014,2336 @@
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B10" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="B12" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B15" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B16" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B17" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B18" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B19" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
       <c r="A20" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B20" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
       <c r="A21" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B21" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="B22" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B23" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B24" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B25" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="19.5">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B26" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="19.5">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B27" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="19.5">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="B28" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="19.5">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="B29" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="19.5">
       <c r="A30" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B30" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="19.5">
       <c r="A31" s="1" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="B31" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="19.5">
       <c r="A32" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B32" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="19.5">
       <c r="A33" s="1" t="s">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="B33" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="19.5">
       <c r="A34" s="1" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="B34" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="19.5">
       <c r="A35" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B35" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="19.5">
       <c r="A36" s="1" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="B36" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="19.5">
       <c r="A37" s="1" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="B37" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
       <c r="A38" s="1" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B38" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
       <c r="A39" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B39" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
       <c r="A40" s="1" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B40" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
       <c r="A41" s="1" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="B41" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
       <c r="A42" s="1" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="B42" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
       <c r="A43" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B43" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
       <c r="A44" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B44" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
       <c r="A45" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B45" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
       <c r="A46" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B46" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
       <c r="A47" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B47" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
       <c r="A48" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B48" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
       <c r="A49" s="1" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="B49" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
       <c r="A50" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B50" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
       <c r="A51" s="1" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="B51" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
       <c r="A52" s="1" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="B52" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75">
       <c r="A53" s="1" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="B53" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75">
       <c r="A54" s="1" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="B54" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75">
       <c r="A55" s="1" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="B55" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75">
       <c r="A56" s="1" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="B56" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75">
       <c r="A57" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B57" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75">
       <c r="A58" s="1" t="s">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="B58" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75">
       <c r="A59" s="1" t="s">
-        <v>46</v>
+        <v>4</v>
       </c>
       <c r="B59" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75">
       <c r="A60" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B60" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18.75">
       <c r="A61" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B61" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18.75">
       <c r="A62" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B62" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18.75">
       <c r="A63" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B63" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18.75">
       <c r="A64" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B64" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18.75">
       <c r="A65" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B65" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18.75">
       <c r="A66" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B66" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18.75">
       <c r="A67" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B67" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18.75">
       <c r="A68" s="1" t="s">
-        <v>5</v>
+        <v>57</v>
       </c>
       <c r="B68" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18.75">
       <c r="A69" s="1" t="s">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="B69" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="18.75">
       <c r="A70" s="1" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="B70" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="18.75">
       <c r="A71" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B71" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="18.75">
       <c r="A72" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B72" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18.75">
       <c r="A73" s="1" t="s">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="B73" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="18.75">
       <c r="A74" s="1" t="s">
-        <v>15</v>
+        <v>62</v>
       </c>
       <c r="B74" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="18.75">
       <c r="A75" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B75" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="18.75">
       <c r="A76" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B76" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="18.75">
       <c r="A77" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B77" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="18.75">
       <c r="A78" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B78" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="18.75">
       <c r="A79" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B79" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="18.75">
       <c r="A80" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B80" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="18.75">
       <c r="A81" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B81" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="18.75">
       <c r="A82" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B82" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="18.75">
       <c r="A83" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B83" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="18.75">
       <c r="A84" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B84" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="18.75">
       <c r="A85" s="1" t="s">
-        <v>9</v>
+        <v>73</v>
       </c>
       <c r="B85" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="18.75">
       <c r="A86" s="1" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B86" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="18.75">
       <c r="A87" s="1" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="B87" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="18.75">
       <c r="A88" s="1" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="B88" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="18.75">
       <c r="A89" s="1" t="s">
-        <v>5</v>
+        <v>77</v>
       </c>
       <c r="B89" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="18.75">
       <c r="A90" s="1" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="B90" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="18.75">
-      <c r="A91" s="3" t="s">
-        <v>72</v>
+      <c r="A91" s="1" t="s">
+        <v>79</v>
       </c>
       <c r="B91" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="18.75">
-      <c r="A92" s="3" t="s">
-        <v>72</v>
+      <c r="A92" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="B92" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="18.75">
-      <c r="A93" s="3" t="s">
-        <v>72</v>
+      <c r="A93" s="1" t="s">
+        <v>81</v>
       </c>
       <c r="B93" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="18.75">
-      <c r="A94" s="3" t="s">
-        <v>72</v>
+      <c r="A94" s="1" t="s">
+        <v>82</v>
       </c>
       <c r="B94" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="18.75">
-      <c r="A95" s="3" t="s">
-        <v>72</v>
+      <c r="A95" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="B95" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="18.75">
-      <c r="A96" s="3" t="s">
-        <v>72</v>
+      <c r="A96" s="1" t="s">
+        <v>83</v>
       </c>
       <c r="B96" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="18.75">
-      <c r="A97" s="3" t="s">
-        <v>72</v>
+      <c r="A97" s="1" t="s">
+        <v>84</v>
       </c>
       <c r="B97" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="18.75">
-      <c r="A98" s="3" t="s">
-        <v>72</v>
+      <c r="A98" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="B98" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="18.75">
-      <c r="A99" s="3" t="s">
-        <v>72</v>
+      <c r="A99" s="1" t="s">
+        <v>86</v>
       </c>
       <c r="B99" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="18.75">
-      <c r="A100" s="3" t="s">
-        <v>72</v>
+      <c r="A100" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="B100" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="18.75">
-      <c r="A101" s="3" t="s">
-        <v>72</v>
+      <c r="A101" s="1" t="s">
+        <v>88</v>
       </c>
       <c r="B101" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="18.75">
-      <c r="A102" s="3" t="s">
-        <v>72</v>
+      <c r="A102" s="1" t="s">
+        <v>89</v>
       </c>
       <c r="B102" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="18.75">
-      <c r="A103" s="3" t="s">
-        <v>72</v>
+      <c r="A103" s="1" t="s">
+        <v>90</v>
       </c>
       <c r="B103" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="18.75">
-      <c r="A104" s="3" t="s">
-        <v>72</v>
+      <c r="A104" s="1" t="s">
+        <v>91</v>
       </c>
       <c r="B104" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="18.75">
-      <c r="A105" s="3" t="s">
-        <v>72</v>
+      <c r="A105" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="B105" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="18.75">
-      <c r="A106" s="3" t="s">
-        <v>72</v>
+      <c r="A106" s="1" t="s">
+        <v>93</v>
       </c>
       <c r="B106" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="18.75">
-      <c r="A107" s="3" t="s">
-        <v>72</v>
+      <c r="A107" s="1" t="s">
+        <v>94</v>
       </c>
       <c r="B107" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="18.75">
-      <c r="A108" s="3" t="s">
-        <v>72</v>
+      <c r="A108" s="1" t="s">
+        <v>95</v>
       </c>
       <c r="B108" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="18.75">
-      <c r="A109" s="3" t="s">
-        <v>72</v>
+      <c r="A109" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="B109" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="18.75">
-      <c r="A110" s="3" t="s">
-        <v>72</v>
+      <c r="A110" s="1" t="s">
+        <v>96</v>
       </c>
       <c r="B110" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="18.75">
-      <c r="A111" s="3" t="s">
-        <v>72</v>
+      <c r="A111" s="1" t="s">
+        <v>97</v>
       </c>
       <c r="B111" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="18.75">
-      <c r="A112" s="3" t="s">
-        <v>72</v>
+      <c r="A112" s="1" t="s">
+        <v>98</v>
       </c>
       <c r="B112" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="18.75">
-      <c r="A113" s="3" t="s">
-        <v>72</v>
+      <c r="A113" s="1" t="s">
+        <v>99</v>
       </c>
       <c r="B113" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="18.75">
-      <c r="A114" s="3" t="s">
-        <v>72</v>
+      <c r="A114" s="1" t="s">
+        <v>100</v>
       </c>
       <c r="B114" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="18.75">
-      <c r="A115" s="3" t="s">
-        <v>72</v>
+      <c r="A115" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="B115" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="18.75">
-      <c r="A116" s="3" t="s">
-        <v>72</v>
+      <c r="A116" s="1" t="s">
+        <v>101</v>
       </c>
       <c r="B116" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="18.75">
-      <c r="A117" s="3" t="s">
-        <v>72</v>
+      <c r="A117" s="1" t="s">
+        <v>102</v>
       </c>
       <c r="B117" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="18.75">
-      <c r="A118" s="3" t="s">
-        <v>72</v>
+      <c r="A118" s="1" t="s">
+        <v>103</v>
       </c>
       <c r="B118" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="18.75">
-      <c r="A119" s="3" t="s">
-        <v>72</v>
+      <c r="A119" s="1" t="s">
+        <v>104</v>
       </c>
       <c r="B119" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="18.75">
-      <c r="A120" s="3" t="s">
-        <v>72</v>
+      <c r="A120" s="1" t="s">
+        <v>105</v>
       </c>
       <c r="B120" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="18.75">
-      <c r="A121" s="3" t="s">
-        <v>72</v>
+      <c r="A121" s="1" t="s">
+        <v>106</v>
       </c>
       <c r="B121" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="18.75">
-      <c r="A122" s="1"/>
+      <c r="A122" s="1" t="s">
+        <v>107</v>
+      </c>
       <c r="B122" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="18.75">
-      <c r="A123" s="1"/>
+      <c r="A123" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B123" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="18.75">
-      <c r="A124" s="1"/>
+      <c r="A124" s="1" t="s">
+        <v>108</v>
+      </c>
       <c r="B124" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="18.75">
-      <c r="A125" s="1"/>
+      <c r="A125" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B125" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="18.75">
-      <c r="A126" s="1"/>
+      <c r="A126" s="1" t="s">
+        <v>109</v>
+      </c>
       <c r="B126" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="18.75">
-      <c r="A127" s="1"/>
+      <c r="A127" s="1" t="s">
+        <v>110</v>
+      </c>
       <c r="B127" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="18.75">
-      <c r="A128" s="1"/>
+      <c r="A128" s="1" t="s">
+        <v>111</v>
+      </c>
       <c r="B128" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="18.75">
-      <c r="A129" s="1"/>
+      <c r="A129" s="1" t="s">
+        <v>112</v>
+      </c>
       <c r="B129" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="18.75">
-      <c r="A130" s="1"/>
+      <c r="A130" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B130" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="18.75">
-      <c r="A131" s="1"/>
+      <c r="A131" s="1" t="s">
+        <v>113</v>
+      </c>
       <c r="B131" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="18.75">
-      <c r="A132" s="1"/>
+      <c r="A132" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B132" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="18.75">
-      <c r="A133" s="1"/>
+      <c r="A133" s="1" t="s">
+        <v>114</v>
+      </c>
       <c r="B133" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="18.75">
-      <c r="A134" s="1"/>
+      <c r="A134" s="1" t="s">
+        <v>115</v>
+      </c>
       <c r="B134" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="18.75">
-      <c r="A135" s="1"/>
+      <c r="A135" s="1" t="s">
+        <v>116</v>
+      </c>
       <c r="B135" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="18.75">
-      <c r="A136" s="1"/>
+      <c r="A136" s="1" t="s">
+        <v>117</v>
+      </c>
       <c r="B136" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="137" customHeight="1" ht="18.75">
-      <c r="A137" s="1"/>
+      <c r="A137" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B137" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="138" customHeight="1" ht="18.75">
-      <c r="A138" s="1"/>
+      <c r="A138" s="1" t="s">
+        <v>118</v>
+      </c>
       <c r="B138" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="139" customHeight="1" ht="18.75">
-      <c r="A139" s="1"/>
+      <c r="A139" s="1" t="s">
+        <v>119</v>
+      </c>
       <c r="B139" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="140" customHeight="1" ht="18.75">
-      <c r="A140" s="1"/>
+      <c r="A140" s="1" t="s">
+        <v>120</v>
+      </c>
       <c r="B140" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="141" customHeight="1" ht="18.75">
-      <c r="A141" s="1"/>
+      <c r="A141" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="B141" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="142" customHeight="1" ht="18.75">
-      <c r="A142" s="1"/>
+      <c r="A142" s="1" t="s">
+        <v>121</v>
+      </c>
       <c r="B142" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="143" customHeight="1" ht="18.75">
-      <c r="A143" s="1"/>
+      <c r="A143" s="1" t="s">
+        <v>122</v>
+      </c>
       <c r="B143" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="144" customHeight="1" ht="18.75">
-      <c r="A144" s="1"/>
+      <c r="A144" s="1" t="s">
+        <v>123</v>
+      </c>
       <c r="B144" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="145" customHeight="1" ht="18.75">
-      <c r="A145" s="1"/>
+      <c r="A145" s="1" t="s">
+        <v>124</v>
+      </c>
       <c r="B145" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="146" customHeight="1" ht="18.75">
-      <c r="A146" s="1"/>
+      <c r="A146" s="1" t="s">
+        <v>125</v>
+      </c>
       <c r="B146" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="147" customHeight="1" ht="18.75">
-      <c r="A147" s="1"/>
+      <c r="A147" s="1" t="s">
+        <v>126</v>
+      </c>
       <c r="B147" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="148" customHeight="1" ht="18.75">
-      <c r="A148" s="1"/>
+      <c r="A148" s="1" t="s">
+        <v>127</v>
+      </c>
       <c r="B148" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="149" customHeight="1" ht="18.75">
-      <c r="A149" s="1"/>
+      <c r="A149" s="1" t="s">
+        <v>128</v>
+      </c>
       <c r="B149" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="150" customHeight="1" ht="18.75">
-      <c r="A150" s="1"/>
+      <c r="A150" s="1" t="s">
+        <v>129</v>
+      </c>
       <c r="B150" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="151" customHeight="1" ht="18.75">
-      <c r="A151" s="1"/>
+      <c r="A151" s="1" t="s">
+        <v>130</v>
+      </c>
       <c r="B151" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="152" customHeight="1" ht="18.75">
-      <c r="A152" s="1"/>
+      <c r="A152" s="1" t="s">
+        <v>131</v>
+      </c>
       <c r="B152" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="153" customHeight="1" ht="18.75">
-      <c r="A153" s="1"/>
+      <c r="A153" s="1" t="s">
+        <v>132</v>
+      </c>
       <c r="B153" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="154" customHeight="1" ht="18.75">
-      <c r="A154" s="1"/>
+      <c r="A154" s="1" t="s">
+        <v>133</v>
+      </c>
       <c r="B154" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="155" customHeight="1" ht="18.75">
-      <c r="A155" s="1"/>
+      <c r="A155" s="1" t="s">
+        <v>134</v>
+      </c>
       <c r="B155" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="156" customHeight="1" ht="18.75">
-      <c r="A156" s="1"/>
+      <c r="A156" s="1" t="s">
+        <v>135</v>
+      </c>
       <c r="B156" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="157" customHeight="1" ht="18.75">
-      <c r="A157" s="1"/>
+      <c r="A157" s="1" t="s">
+        <v>136</v>
+      </c>
       <c r="B157" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="158" customHeight="1" ht="18.75">
-      <c r="A158" s="1"/>
+      <c r="A158" s="1" t="s">
+        <v>137</v>
+      </c>
       <c r="B158" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="159" customHeight="1" ht="18.75">
-      <c r="A159" s="1"/>
+      <c r="A159" s="1" t="s">
+        <v>138</v>
+      </c>
       <c r="B159" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="160" customHeight="1" ht="18.75">
-      <c r="A160" s="1"/>
+      <c r="A160" s="1" t="s">
+        <v>139</v>
+      </c>
       <c r="B160" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="161" customHeight="1" ht="18.75">
-      <c r="A161" s="1"/>
+      <c r="A161" s="1" t="s">
+        <v>140</v>
+      </c>
       <c r="B161" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="162" customHeight="1" ht="18.75">
-      <c r="A162" s="1"/>
+      <c r="A162" s="1" t="s">
+        <v>141</v>
+      </c>
       <c r="B162" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="163" customHeight="1" ht="18.75">
-      <c r="A163" s="1"/>
+      <c r="A163" s="1" t="s">
+        <v>142</v>
+      </c>
       <c r="B163" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="164" customHeight="1" ht="18.75">
-      <c r="A164" s="1"/>
+      <c r="A164" s="1" t="s">
+        <v>143</v>
+      </c>
       <c r="B164" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="165" customHeight="1" ht="19.5">
-      <c r="A165" s="1"/>
+      <c r="A165" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B165" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="166" customHeight="1" ht="19.5">
-      <c r="A166" s="1"/>
+      <c r="A166" s="1" t="s">
+        <v>144</v>
+      </c>
       <c r="B166" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="167" customHeight="1" ht="19.5">
-      <c r="A167" s="1"/>
+      <c r="A167" s="1" t="s">
+        <v>145</v>
+      </c>
       <c r="B167" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="168" customHeight="1" ht="19.5">
-      <c r="A168" s="1"/>
+      <c r="A168" s="1" t="s">
+        <v>146</v>
+      </c>
       <c r="B168" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="169" customHeight="1" ht="19.5">
-      <c r="A169" s="1"/>
+      <c r="A169" s="1" t="s">
+        <v>147</v>
+      </c>
       <c r="B169" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="170" customHeight="1" ht="19.5">
-      <c r="A170" s="1"/>
+      <c r="A170" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B170" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="171" customHeight="1" ht="19.5">
-      <c r="A171" s="1"/>
+      <c r="A171" s="1" t="s">
+        <v>148</v>
+      </c>
       <c r="B171" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="172" customHeight="1" ht="19.5">
-      <c r="A172" s="1"/>
+      <c r="A172" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="B172" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="173" customHeight="1" ht="19.5">
-      <c r="A173" s="1"/>
+      <c r="A173" s="1" t="s">
+        <v>149</v>
+      </c>
       <c r="B173" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="174" customHeight="1" ht="19.5">
-      <c r="A174" s="1"/>
+      <c r="A174" s="1" t="s">
+        <v>150</v>
+      </c>
       <c r="B174" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="175" customHeight="1" ht="19.5">
-      <c r="A175" s="1"/>
+      <c r="A175" s="1" t="s">
+        <v>151</v>
+      </c>
       <c r="B175" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="176" customHeight="1" ht="19.5">
-      <c r="A176" s="1"/>
+      <c r="A176" s="1" t="s">
+        <v>152</v>
+      </c>
       <c r="B176" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="177" customHeight="1" ht="19.5">
-      <c r="A177" s="1"/>
+      <c r="A177" s="1" t="s">
+        <v>153</v>
+      </c>
       <c r="B177" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="178" customHeight="1" ht="19.5">
-      <c r="A178" s="1"/>
+      <c r="A178" s="1" t="s">
+        <v>154</v>
+      </c>
       <c r="B178" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="179" customHeight="1" ht="19.5">
-      <c r="A179" s="1"/>
+      <c r="A179" s="1" t="s">
+        <v>155</v>
+      </c>
       <c r="B179" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="180" customHeight="1" ht="19.5">
-      <c r="A180" s="1"/>
+      <c r="A180" s="1" t="s">
+        <v>156</v>
+      </c>
       <c r="B180" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="181" customHeight="1" ht="19.5">
-      <c r="A181" s="1"/>
+      <c r="A181" s="1" t="s">
+        <v>157</v>
+      </c>
       <c r="B181" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="182" customHeight="1" ht="19.5">
-      <c r="A182" s="1"/>
+      <c r="A182" s="1" t="s">
+        <v>158</v>
+      </c>
       <c r="B182" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="183" customHeight="1" ht="19.5">
-      <c r="A183" s="1"/>
+      <c r="A183" s="1" t="s">
+        <v>159</v>
+      </c>
       <c r="B183" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="184" customHeight="1" ht="19.5">
-      <c r="A184" s="1"/>
+      <c r="A184" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="B184" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="185" customHeight="1" ht="19.5">
-      <c r="A185" s="1"/>
+      <c r="A185" s="1" t="s">
+        <v>160</v>
+      </c>
       <c r="B185" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="186" customHeight="1" ht="19.5">
-      <c r="A186" s="1"/>
+      <c r="A186" s="1" t="s">
+        <v>67</v>
+      </c>
       <c r="B186" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="187" customHeight="1" ht="19.5">
-      <c r="A187" s="1"/>
+      <c r="A187" s="1" t="s">
+        <v>161</v>
+      </c>
       <c r="B187" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="188" customHeight="1" ht="19.5">
-      <c r="A188" s="1"/>
+      <c r="A188" s="1" t="s">
+        <v>162</v>
+      </c>
       <c r="B188" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="189" customHeight="1" ht="19.5">
-      <c r="A189" s="1"/>
+      <c r="A189" s="1" t="s">
+        <v>163</v>
+      </c>
       <c r="B189" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="190" customHeight="1" ht="19.5">
-      <c r="A190" s="1"/>
+      <c r="A190" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B190" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="191" customHeight="1" ht="19.5">
-      <c r="A191" s="1"/>
+      <c r="A191" s="1" t="s">
+        <v>164</v>
+      </c>
       <c r="B191" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="192" customHeight="1" ht="19.5">
-      <c r="A192" s="1"/>
+      <c r="A192" s="1" t="s">
+        <v>165</v>
+      </c>
       <c r="B192" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="193" customHeight="1" ht="19.5">
-      <c r="A193" s="1"/>
+      <c r="A193" s="1" t="s">
+        <v>166</v>
+      </c>
       <c r="B193" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="194" customHeight="1" ht="19.5">
-      <c r="A194" s="1"/>
+      <c r="A194" s="1" t="s">
+        <v>167</v>
+      </c>
       <c r="B194" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="195" customHeight="1" ht="19.5">
-      <c r="A195" s="1"/>
+      <c r="A195" s="1" t="s">
+        <v>168</v>
+      </c>
       <c r="B195" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="196" customHeight="1" ht="19.5">
-      <c r="A196" s="1"/>
+      <c r="A196" s="1" t="s">
+        <v>169</v>
+      </c>
       <c r="B196" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="197" customHeight="1" ht="19.5">
-      <c r="A197" s="1"/>
+      <c r="A197" s="1" t="s">
+        <v>170</v>
+      </c>
       <c r="B197" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="198" customHeight="1" ht="19.5">
-      <c r="A198" s="1"/>
+      <c r="A198" s="1" t="s">
+        <v>171</v>
+      </c>
       <c r="B198" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="199" customHeight="1" ht="19.5">
-      <c r="A199" s="1"/>
+      <c r="A199" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="B199" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="200" customHeight="1" ht="18.75">
-      <c r="A200" s="1"/>
+      <c r="A200" s="1" t="s">
+        <v>172</v>
+      </c>
       <c r="B200" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="201" customHeight="1" ht="18.75">
-      <c r="A201" s="1"/>
+      <c r="A201" s="1" t="s">
+        <v>173</v>
+      </c>
       <c r="B201" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="202" customHeight="1" ht="18.75">
-      <c r="A202" s="1"/>
+      <c r="A202" s="1" t="s">
+        <v>174</v>
+      </c>
       <c r="B202" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="203" customHeight="1" ht="18.75">
-      <c r="A203" s="1"/>
+      <c r="A203" s="1" t="s">
+        <v>175</v>
+      </c>
       <c r="B203" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="204" customHeight="1" ht="18.75">
-      <c r="A204" s="1"/>
+      <c r="A204" s="1" t="s">
+        <v>176</v>
+      </c>
       <c r="B204" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="205" customHeight="1" ht="18.75">
-      <c r="A205" s="1"/>
+      <c r="A205" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B205" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="206" customHeight="1" ht="18.75">
-      <c r="A206" s="1"/>
+      <c r="A206" s="1" t="s">
+        <v>177</v>
+      </c>
       <c r="B206" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="207" customHeight="1" ht="18.75">
-      <c r="A207" s="1"/>
+      <c r="A207" s="1" t="s">
+        <v>178</v>
+      </c>
       <c r="B207" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="208" customHeight="1" ht="18.75">
-      <c r="A208" s="1"/>
+      <c r="A208" s="1" t="s">
+        <v>179</v>
+      </c>
       <c r="B208" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="209" customHeight="1" ht="18.75">
-      <c r="A209" s="1"/>
+      <c r="A209" s="1" t="s">
+        <v>180</v>
+      </c>
       <c r="B209" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="210" customHeight="1" ht="18.75">
-      <c r="A210" s="1"/>
+      <c r="A210" s="1" t="s">
+        <v>181</v>
+      </c>
       <c r="B210" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="211" customHeight="1" ht="18.75">
-      <c r="A211" s="1"/>
+      <c r="A211" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B211" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="212" customHeight="1" ht="18.75">
-      <c r="A212" s="1"/>
+      <c r="A212" s="1" t="s">
+        <v>182</v>
+      </c>
       <c r="B212" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="213" customHeight="1" ht="18.75">
-      <c r="A213" s="1"/>
+      <c r="A213" s="1" t="s">
+        <v>183</v>
+      </c>
       <c r="B213" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="214" customHeight="1" ht="18.75">
-      <c r="A214" s="1"/>
+      <c r="A214" s="1" t="s">
+        <v>184</v>
+      </c>
       <c r="B214" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="215" customHeight="1" ht="18.75">
-      <c r="A215" s="1"/>
+      <c r="A215" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="B215" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="216" customHeight="1" ht="18.75">
-      <c r="A216" s="1"/>
+      <c r="A216" s="1" t="s">
+        <v>185</v>
+      </c>
       <c r="B216" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="217" customHeight="1" ht="18.75">
-      <c r="A217" s="1"/>
+      <c r="A217" s="1" t="s">
+        <v>185</v>
+      </c>
       <c r="B217" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="218" customHeight="1" ht="18.75">
-      <c r="A218" s="1"/>
+      <c r="A218" s="1" t="s">
+        <v>186</v>
+      </c>
       <c r="B218" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="219" customHeight="1" ht="18.75">
-      <c r="A219" s="1"/>
+      <c r="A219" s="3" t="s">
+        <v>187</v>
+      </c>
       <c r="B219" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="220" customHeight="1" ht="18.75">
-      <c r="A220" s="1"/>
+      <c r="A220" s="3" t="s">
+        <v>187</v>
+      </c>
       <c r="B220" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="221" customHeight="1" ht="18.75">
-      <c r="A221" s="1"/>
+      <c r="A221" s="3" t="s">
+        <v>187</v>
+      </c>
       <c r="B221" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="222" customHeight="1" ht="18.75">
-      <c r="A222" s="1"/>
+      <c r="A222" s="3" t="s">
+        <v>187</v>
+      </c>
       <c r="B222" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="223" customHeight="1" ht="18.75">
-      <c r="A223" s="1"/>
+      <c r="A223" s="3" t="s">
+        <v>187</v>
+      </c>
       <c r="B223" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="224" customHeight="1" ht="18.75">
-      <c r="A224" s="1"/>
+      <c r="A224" s="3" t="s">
+        <v>187</v>
+      </c>
       <c r="B224" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="225" customHeight="1" ht="18.75">
-      <c r="A225" s="1"/>
+      <c r="A225" s="3" t="s">
+        <v>187</v>
+      </c>
       <c r="B225" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="226" customHeight="1" ht="18.75">
-      <c r="A226" s="1"/>
+      <c r="A226" s="3" t="s">
+        <v>187</v>
+      </c>
       <c r="B226" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="227" customHeight="1" ht="18.75">
-      <c r="A227" s="1"/>
+      <c r="A227" s="3" t="s">
+        <v>187</v>
+      </c>
       <c r="B227" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="228" customHeight="1" ht="18.75">
-      <c r="A228" s="1"/>
+      <c r="A228" s="3" t="s">
+        <v>187</v>
+      </c>
       <c r="B228" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="229" customHeight="1" ht="18.75">
-      <c r="A229" s="1"/>
+      <c r="A229" s="3" t="s">
+        <v>187</v>
+      </c>
       <c r="B229" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="230" customHeight="1" ht="18.75">
-      <c r="A230" s="1"/>
+      <c r="A230" s="3" t="s">
+        <v>187</v>
+      </c>
       <c r="B230" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="231" customHeight="1" ht="18.75">
-      <c r="A231" s="1"/>
+      <c r="A231" s="3" t="s">
+        <v>187</v>
+      </c>
       <c r="B231" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="232" customHeight="1" ht="18.75">
-      <c r="A232" s="1"/>
+      <c r="A232" s="3" t="s">
+        <v>187</v>
+      </c>
       <c r="B232" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="233" customHeight="1" ht="18.75">
-      <c r="A233" s="1"/>
+      <c r="A233" s="3" t="s">
+        <v>187</v>
+      </c>
       <c r="B233" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="234" customHeight="1" ht="18.75">
-      <c r="A234" s="1"/>
+      <c r="A234" s="3" t="s">
+        <v>187</v>
+      </c>
       <c r="B234" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="235" customHeight="1" ht="18.75">
-      <c r="A235" s="1"/>
+      <c r="A235" s="3" t="s">
+        <v>187</v>
+      </c>
       <c r="B235" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="236" customHeight="1" ht="18.75">
-      <c r="A236" s="1"/>
+      <c r="A236" s="3" t="s">
+        <v>187</v>
+      </c>
       <c r="B236" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="237" customHeight="1" ht="18.75">
-      <c r="A237" s="1"/>
+      <c r="A237" s="3" t="s">
+        <v>187</v>
+      </c>
       <c r="B237" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="238" customHeight="1" ht="18.75">
-      <c r="A238" s="1"/>
+      <c r="A238" s="3" t="s">
+        <v>187</v>
+      </c>
       <c r="B238" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="239" customHeight="1" ht="18.75">
-      <c r="A239" s="1"/>
+      <c r="A239" s="3" t="s">
+        <v>187</v>
+      </c>
       <c r="B239" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="240" customHeight="1" ht="18.75">
-      <c r="A240" s="1"/>
+      <c r="A240" s="3" t="s">
+        <v>187</v>
+      </c>
       <c r="B240" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="241" customHeight="1" ht="18.75">
-      <c r="A241" s="1"/>
+      <c r="A241" s="3" t="s">
+        <v>187</v>
+      </c>
       <c r="B241" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="242" customHeight="1" ht="18.75">
-      <c r="A242" s="1"/>
+      <c r="A242" s="3" t="s">
+        <v>187</v>
+      </c>
       <c r="B242" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="243" customHeight="1" ht="18.75">
-      <c r="A243" s="1"/>
+      <c r="A243" s="3" t="s">
+        <v>187</v>
+      </c>
       <c r="B243" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="244" customHeight="1" ht="18.75">
-      <c r="A244" s="1"/>
+      <c r="A244" s="3" t="s">
+        <v>187</v>
+      </c>
       <c r="B244" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="245" customHeight="1" ht="18.75">
-      <c r="A245" s="1"/>
+      <c r="A245" s="3" t="s">
+        <v>187</v>
+      </c>
       <c r="B245" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="246" customHeight="1" ht="18.75">
-      <c r="A246" s="1"/>
+      <c r="A246" s="3" t="s">
+        <v>187</v>
+      </c>
       <c r="B246" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="247" customHeight="1" ht="18.75">
-      <c r="A247" s="1"/>
+      <c r="A247" s="3" t="s">
+        <v>187</v>
+      </c>
       <c r="B247" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="248" customHeight="1" ht="18.75">
-      <c r="A248" s="1"/>
+      <c r="A248" s="3" t="s">
+        <v>187</v>
+      </c>
       <c r="B248" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="249" customHeight="1" ht="18.75">
-      <c r="A249" s="1"/>
+      <c r="A249" s="3" t="s">
+        <v>187</v>
+      </c>
       <c r="B249" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="250" customHeight="1" ht="18.75">
-      <c r="A250" s="1"/>
+      <c r="A250" s="3" t="s">
+        <v>187</v>
+      </c>
       <c r="B250" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="251" customHeight="1" ht="18.75">
-      <c r="A251" s="1"/>
+      <c r="A251" s="3" t="s">
+        <v>187</v>
+      </c>
       <c r="B251" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="252" customHeight="1" ht="18.75">
-      <c r="A252" s="1"/>
+      <c r="A252" s="3" t="s">
+        <v>187</v>
+      </c>
       <c r="B252" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="253" customHeight="1" ht="18.75">
-      <c r="A253" s="1"/>
+      <c r="A253" s="3" t="s">
+        <v>187</v>
+      </c>
       <c r="B253" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="254" customHeight="1" ht="18.75">
-      <c r="A254" s="1"/>
+      <c r="A254" s="3" t="s">
+        <v>187</v>
+      </c>
       <c r="B254" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="255" customHeight="1" ht="18.75">
-      <c r="A255" s="1"/>
+      <c r="A255" s="3" t="s">
+        <v>187</v>
+      </c>
       <c r="B255" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="256" customHeight="1" ht="18.75">
-      <c r="A256" s="1"/>
+      <c r="A256" s="3" t="s">
+        <v>187</v>
+      </c>
       <c r="B256" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="257" customHeight="1" ht="18.75">
-      <c r="A257" s="1"/>
+      <c r="A257" s="3" t="s">
+        <v>187</v>
+      </c>
       <c r="B257" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="258" customHeight="1" ht="18.75">
-      <c r="A258" s="1"/>
+      <c r="A258" s="3" t="s">
+        <v>187</v>
+      </c>
       <c r="B258" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="259" customHeight="1" ht="18.75">
-      <c r="A259" s="1"/>
+      <c r="A259" s="3" t="s">
+        <v>187</v>
+      </c>
       <c r="B259" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="260" customHeight="1" ht="18.75">
-      <c r="A260" s="1"/>
+      <c r="A260" s="3" t="s">
+        <v>187</v>
+      </c>
       <c r="B260" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="261" customHeight="1" ht="18.75">
-      <c r="A261" s="1"/>
+      <c r="A261" s="3" t="s">
+        <v>187</v>
+      </c>
       <c r="B261" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="262" customHeight="1" ht="18.75">
-      <c r="A262" s="1"/>
+      <c r="A262" s="3" t="s">
+        <v>187</v>
+      </c>
       <c r="B262" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="263" customHeight="1" ht="18.75">
-      <c r="A263" s="1"/>
+      <c r="A263" s="3" t="s">
+        <v>187</v>
+      </c>
       <c r="B263" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="264" customHeight="1" ht="18.75">
-      <c r="A264" s="1"/>
+      <c r="A264" s="3" t="s">
+        <v>187</v>
+      </c>
       <c r="B264" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="265" customHeight="1" ht="18.75">
-      <c r="A265" s="1"/>
+      <c r="A265" s="3" t="s">
+        <v>187</v>
+      </c>
       <c r="B265" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="266" customHeight="1" ht="18.75">
-      <c r="A266" s="1"/>
+      <c r="A266" s="3" t="s">
+        <v>187</v>
+      </c>
       <c r="B266" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="267" customHeight="1" ht="18.75">
-      <c r="A267" s="1"/>
+      <c r="A267" s="3" t="s">
+        <v>187</v>
+      </c>
       <c r="B267" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="268" customHeight="1" ht="18.75">
-      <c r="A268" s="1"/>
+      <c r="A268" s="3" t="s">
+        <v>187</v>
+      </c>
       <c r="B268" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="269" customHeight="1" ht="18.75">
-      <c r="A269" s="1"/>
+      <c r="A269" s="3" t="s">
+        <v>187</v>
+      </c>
       <c r="B269" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="270" customHeight="1" ht="18.75">
-      <c r="A270" s="1"/>
+      <c r="A270" s="3" t="s">
+        <v>187</v>
+      </c>
       <c r="B270" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="271" customHeight="1" ht="18.75">
-      <c r="A271" s="1"/>
+      <c r="A271" s="3" t="s">
+        <v>187</v>
+      </c>
       <c r="B271" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="272" customHeight="1" ht="18.75">
-      <c r="A272" s="1"/>
+      <c r="A272" s="3" t="s">
+        <v>187</v>
+      </c>
       <c r="B272" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="273" customHeight="1" ht="18.75">
-      <c r="A273" s="1"/>
+      <c r="A273" s="3" t="s">
+        <v>187</v>
+      </c>
       <c r="B273" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="274" customHeight="1" ht="18.75">
-      <c r="A274" s="1"/>
+      <c r="A274" s="3" t="s">
+        <v>187</v>
+      </c>
       <c r="B274" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="275" customHeight="1" ht="18.75">
-      <c r="A275" s="1"/>
+      <c r="A275" s="3" t="s">
+        <v>187</v>
+      </c>
       <c r="B275" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="276" customHeight="1" ht="18.75">
-      <c r="A276" s="1"/>
+      <c r="A276" s="3" t="s">
+        <v>187</v>
+      </c>
       <c r="B276" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="277" customHeight="1" ht="18.75">
-      <c r="A277" s="1"/>
+      <c r="A277" s="3" t="s">
+        <v>187</v>
+      </c>
       <c r="B277" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="278" customHeight="1" ht="18.75">
-      <c r="A278" s="1"/>
+      <c r="A278" s="3" t="s">
+        <v>187</v>
+      </c>
       <c r="B278" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="279" customHeight="1" ht="18.75">
-      <c r="A279" s="1"/>
+      <c r="A279" s="3" t="s">
+        <v>187</v>
+      </c>
       <c r="B279" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="280" customHeight="1" ht="18.75">
-      <c r="A280" s="1"/>
+      <c r="A280" s="3" t="s">
+        <v>187</v>
+      </c>
       <c r="B280" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="281" customHeight="1" ht="18.75">
-      <c r="A281" s="1"/>
+      <c r="A281" s="3" t="s">
+        <v>187</v>
+      </c>
       <c r="B281" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="282" customHeight="1" ht="18.75">
-      <c r="A282" s="1"/>
+      <c r="A282" s="3" t="s">
+        <v>187</v>
+      </c>
       <c r="B282" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="283" customHeight="1" ht="18.75">
-      <c r="A283" s="1"/>
+      <c r="A283" s="3" t="s">
+        <v>187</v>
+      </c>
       <c r="B283" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="284" customHeight="1" ht="18.75">
-      <c r="A284" s="1"/>
+      <c r="A284" s="3" t="s">
+        <v>187</v>
+      </c>
       <c r="B284" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="285" customHeight="1" ht="18.75">
-      <c r="A285" s="1"/>
+      <c r="A285" s="3" t="s">
+        <v>187</v>
+      </c>
       <c r="B285" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="286" customHeight="1" ht="18.75">
-      <c r="A286" s="1"/>
+      <c r="A286" s="3" t="s">
+        <v>187</v>
+      </c>
       <c r="B286" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="287" customHeight="1" ht="18.75">
-      <c r="A287" s="1"/>
+      <c r="A287" s="3" t="s">
+        <v>187</v>
+      </c>
       <c r="B287" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="288" customHeight="1" ht="18.75">
-      <c r="A288" s="1"/>
+      <c r="A288" s="3" t="s">
+        <v>187</v>
+      </c>
       <c r="B288" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="289" customHeight="1" ht="18.75">
-      <c r="A289" s="1"/>
+      <c r="A289" s="3" t="s">
+        <v>187</v>
+      </c>
       <c r="B289" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="290" customHeight="1" ht="18.75">
-      <c r="A290" s="1"/>
+      <c r="A290" s="3" t="s">
+        <v>187</v>
+      </c>
       <c r="B290" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="291" customHeight="1" ht="18.75">
-      <c r="A291" s="1"/>
+      <c r="A291" s="3" t="s">
+        <v>187</v>
+      </c>
       <c r="B291" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="292" customHeight="1" ht="18.75">
-      <c r="A292" s="1"/>
+      <c r="A292" s="3" t="s">
+        <v>187</v>
+      </c>
       <c r="B292" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="293" customHeight="1" ht="18.75">
-      <c r="A293" s="1"/>
+      <c r="A293" s="3" t="s">
+        <v>187</v>
+      </c>
       <c r="B293" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="294" customHeight="1" ht="18.75">
-      <c r="A294" s="1"/>
+      <c r="A294" s="3" t="s">
+        <v>187</v>
+      </c>
       <c r="B294" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="295" customHeight="1" ht="18.75">
-      <c r="A295" s="1"/>
+      <c r="A295" s="3" t="s">
+        <v>187</v>
+      </c>
       <c r="B295" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="296" customHeight="1" ht="18.75">
-      <c r="A296" s="1"/>
+      <c r="A296" s="3" t="s">
+        <v>187</v>
+      </c>
       <c r="B296" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="297" customHeight="1" ht="18.75">
-      <c r="A297" s="1"/>
+      <c r="A297" s="3" t="s">
+        <v>187</v>
+      </c>
       <c r="B297" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="298" customHeight="1" ht="18.75">
-      <c r="A298" s="1"/>
+      <c r="A298" s="3" t="s">
+        <v>187</v>
+      </c>
       <c r="B298" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="299" customHeight="1" ht="18.75">
-      <c r="A299" s="1"/>
+      <c r="A299" s="3" t="s">
+        <v>187</v>
+      </c>
       <c r="B299" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="300" customHeight="1" ht="18.75">
-      <c r="A300" s="1"/>
+      <c r="A300" s="3" t="s">
+        <v>187</v>
+      </c>
       <c r="B300" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="301" customHeight="1" ht="18.75">
-      <c r="A301" s="1"/>
+      <c r="A301" s="3" t="s">
+        <v>187</v>
+      </c>
       <c r="B301" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="302" customHeight="1" ht="18.75">
-      <c r="A302" s="1"/>
+      <c r="A302" s="3" t="s">
+        <v>187</v>
+      </c>
       <c r="B302" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="303" customHeight="1" ht="18.75">
-      <c r="A303" s="1"/>
+      <c r="A303" s="3" t="s">
+        <v>187</v>
+      </c>
       <c r="B303" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="304" customHeight="1" ht="18.75">
-      <c r="A304" s="1"/>
+      <c r="A304" s="3" t="s">
+        <v>187</v>
+      </c>
       <c r="B304" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="305" customHeight="1" ht="18.75">
-      <c r="A305" s="1"/>
+      <c r="A305" s="3" t="s">
+        <v>187</v>
+      </c>
       <c r="B305" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="306" customHeight="1" ht="18.75">
-      <c r="A306" s="1"/>
+      <c r="A306" s="3" t="s">
+        <v>187</v>
+      </c>
       <c r="B306" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="307" customHeight="1" ht="18.75">
-      <c r="A307" s="1"/>
+      <c r="A307" s="3" t="s">
+        <v>187</v>
+      </c>
       <c r="B307" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="308" customHeight="1" ht="18.75">
-      <c r="A308" s="1"/>
+      <c r="A308" s="3" t="s">
+        <v>187</v>
+      </c>
       <c r="B308" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="309" customHeight="1" ht="18.75">
-      <c r="A309" s="1"/>
+      <c r="A309" s="3" t="s">
+        <v>187</v>
+      </c>
       <c r="B309" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="310" customHeight="1" ht="18.75">
-      <c r="A310" s="1"/>
+      <c r="A310" s="3" t="s">
+        <v>187</v>
+      </c>
       <c r="B310" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="311" customHeight="1" ht="18.75">
-      <c r="A311" s="1"/>
+      <c r="A311" s="3" t="s">
+        <v>187</v>
+      </c>
       <c r="B311" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="312" customHeight="1" ht="18.75">
-      <c r="A312" s="1"/>
+      <c r="A312" s="3" t="s">
+        <v>187</v>
+      </c>
       <c r="B312" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="313" customHeight="1" ht="18.75">
-      <c r="A313" s="1"/>
+      <c r="A313" s="3" t="s">
+        <v>187</v>
+      </c>
       <c r="B313" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="314" customHeight="1" ht="18.75">
-      <c r="A314" s="1"/>
+      <c r="A314" s="3" t="s">
+        <v>187</v>
+      </c>
       <c r="B314" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="315" customHeight="1" ht="18.75">
-      <c r="A315" s="1"/>
+      <c r="A315" s="3" t="s">
+        <v>187</v>
+      </c>
       <c r="B315" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="316" customHeight="1" ht="18.75">
-      <c r="A316" s="1"/>
+      <c r="A316" s="3" t="s">
+        <v>187</v>
+      </c>
       <c r="B316" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="317" customHeight="1" ht="18.75">
-      <c r="A317" s="1"/>
+      <c r="A317" s="3" t="s">
+        <v>187</v>
+      </c>
       <c r="B317" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="318" customHeight="1" ht="18.75">
-      <c r="A318" s="1"/>
+      <c r="A318" s="3" t="s">
+        <v>187</v>
+      </c>
       <c r="B318" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="319" customHeight="1" ht="18.75">
-      <c r="A319" s="1"/>
+      <c r="A319" s="3" t="s">
+        <v>187</v>
+      </c>
       <c r="B319" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="320" customHeight="1" ht="18.75">
-      <c r="A320" s="1"/>
+      <c r="A320" s="3" t="s">
+        <v>187</v>
+      </c>
       <c r="B320" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="321" customHeight="1" ht="18.75">
-      <c r="A321" s="1"/>
+      <c r="A321" s="3" t="s">
+        <v>187</v>
+      </c>
       <c r="B321" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="322" customHeight="1" ht="18.75">
-      <c r="A322" s="1"/>
+      <c r="A322" s="3" t="s">
+        <v>187</v>
+      </c>
       <c r="B322" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="323" customHeight="1" ht="18.75">
-      <c r="A323" s="1"/>
+      <c r="A323" s="3" t="s">
+        <v>187</v>
+      </c>
       <c r="B323" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="324" customHeight="1" ht="18.75">
-      <c r="A324" s="1"/>
+      <c r="A324" s="3" t="s">
+        <v>187</v>
+      </c>
       <c r="B324" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="325" customHeight="1" ht="18.75">
-      <c r="A325" s="1"/>
+      <c r="A325" s="3" t="s">
+        <v>187</v>
+      </c>
       <c r="B325" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="326" customHeight="1" ht="18.75">
-      <c r="A326" s="1"/>
+      <c r="A326" s="3" t="s">
+        <v>187</v>
+      </c>
       <c r="B326" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="327" customHeight="1" ht="18.75">
-      <c r="A327" s="1"/>
+      <c r="A327" s="3" t="s">
+        <v>187</v>
+      </c>
       <c r="B327" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="328" customHeight="1" ht="18.75">
-      <c r="A328" s="1"/>
+      <c r="A328" s="3" t="s">
+        <v>187</v>
+      </c>
       <c r="B328" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="329" customHeight="1" ht="18.75">
-      <c r="A329" s="1"/>
+      <c r="A329" s="3" t="s">
+        <v>187</v>
+      </c>
       <c r="B329" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="330" customHeight="1" ht="18.75">
-      <c r="A330" s="1"/>
+      <c r="A330" s="3" t="s">
+        <v>187</v>
+      </c>
       <c r="B330" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="331" customHeight="1" ht="18.75">
-      <c r="A331" s="1"/>
+      <c r="A331" s="3" t="s">
+        <v>187</v>
+      </c>
       <c r="B331" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="332" customHeight="1" ht="18.75">
-      <c r="A332" s="1"/>
+      <c r="A332" s="3" t="s">
+        <v>187</v>
+      </c>
       <c r="B332" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="333" customHeight="1" ht="18.75">
-      <c r="A333" s="1"/>
+      <c r="A333" s="3" t="s">
+        <v>187</v>
+      </c>
       <c r="B333" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="334" customHeight="1" ht="18.75">
-      <c r="A334" s="1"/>
+      <c r="A334" s="3" t="s">
+        <v>187</v>
+      </c>
       <c r="B334" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="335" customHeight="1" ht="18.75">
-      <c r="A335" s="1"/>
+      <c r="A335" s="3" t="s">
+        <v>187</v>
+      </c>
       <c r="B335" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="336" customHeight="1" ht="18.75">
-      <c r="A336" s="1"/>
+      <c r="A336" s="3" t="s">
+        <v>187</v>
+      </c>
       <c r="B336" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="337" customHeight="1" ht="18.75">
-      <c r="A337" s="1"/>
+      <c r="A337" s="3" t="s">
+        <v>187</v>
+      </c>
       <c r="B337" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="338" customHeight="1" ht="18.75">
-      <c r="A338" s="1"/>
+      <c r="A338" s="3" t="s">
+        <v>187</v>
+      </c>
       <c r="B338" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="339" customHeight="1" ht="18.75">
-      <c r="A339" s="1"/>
+      <c r="A339" s="3" t="s">
+        <v>187</v>
+      </c>
       <c r="B339" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="340" customHeight="1" ht="18.75">
-      <c r="A340" s="1"/>
+      <c r="A340" s="3" t="s">
+        <v>187</v>
+      </c>
       <c r="B340" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="341" customHeight="1" ht="18.75">
-      <c r="A341" s="1"/>
+      <c r="A341" s="3" t="s">
+        <v>187</v>
+      </c>
       <c r="B341" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="342" customHeight="1" ht="18.75">
-      <c r="A342" s="1"/>
+      <c r="A342" s="3" t="s">
+        <v>187</v>
+      </c>
       <c r="B342" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="343" customHeight="1" ht="18.75">
-      <c r="A343" s="1"/>
+      <c r="A343" s="3" t="s">
+        <v>187</v>
+      </c>
       <c r="B343" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="344" customHeight="1" ht="18.75">
-      <c r="A344" s="1"/>
+      <c r="A344" s="3" t="s">
+        <v>187</v>
+      </c>
       <c r="B344" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="345" customHeight="1" ht="18.75">
-      <c r="A345" s="1"/>
+      <c r="A345" s="3" t="s">
+        <v>187</v>
+      </c>
       <c r="B345" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="346" customHeight="1" ht="18.75">
-      <c r="A346" s="1"/>
+      <c r="A346" s="3" t="s">
+        <v>187</v>
+      </c>
       <c r="B346" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="347" customHeight="1" ht="18.75">
-      <c r="A347" s="1"/>
+      <c r="A347" s="3" t="s">
+        <v>187</v>
+      </c>
       <c r="B347" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="348" customHeight="1" ht="18.75">
-      <c r="A348" s="1"/>
+      <c r="A348" s="3" t="s">
+        <v>187</v>
+      </c>
       <c r="B348" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="349" customHeight="1" ht="18.75">
-      <c r="A349" s="1"/>
+      <c r="A349" s="3" t="s">
+        <v>187</v>
+      </c>
       <c r="B349" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="350" customHeight="1" ht="18.75">
-      <c r="A350" s="1"/>
+      <c r="A350" s="3" t="s">
+        <v>187</v>
+      </c>
       <c r="B350" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="351" customHeight="1" ht="18.75">
-      <c r="A351" s="1"/>
+      <c r="A351" s="3" t="s">
+        <v>187</v>
+      </c>
       <c r="B351" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="352" customHeight="1" ht="18.75">
-      <c r="A352" s="1"/>
+      <c r="A352" s="3" t="s">
+        <v>187</v>
+      </c>
       <c r="B352" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="353" customHeight="1" ht="18.75">
-      <c r="A353" s="1"/>
+      <c r="A353" s="3" t="s">
+        <v>187</v>
+      </c>
       <c r="B353" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="354" customHeight="1" ht="18.75">
-      <c r="A354" s="1"/>
+      <c r="A354" s="3" t="s">
+        <v>187</v>
+      </c>
       <c r="B354" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="355" customHeight="1" ht="18.75">
-      <c r="A355" s="1"/>
+      <c r="A355" s="3" t="s">
+        <v>187</v>
+      </c>
       <c r="B355" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="356" customHeight="1" ht="18.75">
-      <c r="A356" s="1"/>
+      <c r="A356" s="3" t="s">
+        <v>187</v>
+      </c>
       <c r="B356" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="357" customHeight="1" ht="18.75">
-      <c r="A357" s="1"/>
+      <c r="A357" s="3" t="s">
+        <v>187</v>
+      </c>
       <c r="B357" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="358" customHeight="1" ht="18.75">
-      <c r="A358" s="1"/>
+      <c r="A358" s="3" t="s">
+        <v>187</v>
+      </c>
       <c r="B358" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="359" customHeight="1" ht="18.75">
-      <c r="A359" s="1"/>
+      <c r="A359" s="3" t="s">
+        <v>187</v>
+      </c>
       <c r="B359" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="360" customHeight="1" ht="18.75">
-      <c r="A360" s="1"/>
+      <c r="A360" s="3" t="s">
+        <v>187</v>
+      </c>
       <c r="B360" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="361" customHeight="1" ht="18.75">
-      <c r="A361" s="1"/>
+      <c r="A361" s="3" t="s">
+        <v>187</v>
+      </c>
       <c r="B361" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="362" customHeight="1" ht="18.75">
-      <c r="A362" s="1"/>
+      <c r="A362" s="3" t="s">
+        <v>187</v>
+      </c>
       <c r="B362" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="363" customHeight="1" ht="18.75">
-      <c r="A363" s="1"/>
+      <c r="A363" s="3" t="s">
+        <v>187</v>
+      </c>
       <c r="B363" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="364" customHeight="1" ht="18.75">
-      <c r="A364" s="1"/>
+      <c r="A364" s="3" t="s">
+        <v>187</v>
+      </c>
       <c r="B364" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="365" customHeight="1" ht="18.75">
-      <c r="A365" s="1"/>
+      <c r="A365" s="3" t="s">
+        <v>187</v>
+      </c>
       <c r="B365" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="366" customHeight="1" ht="18.75">
-      <c r="A366" s="1"/>
+      <c r="A366" s="3" t="s">
+        <v>187</v>
+      </c>
       <c r="B366" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="367" customHeight="1" ht="18.75">
-      <c r="A367" s="1"/>
+      <c r="A367" s="3" t="s">
+        <v>187</v>
+      </c>
       <c r="B367" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="368" customHeight="1" ht="18.75">
-      <c r="A368" s="1"/>
+      <c r="A368" s="3" t="s">
+        <v>187</v>
+      </c>
       <c r="B368" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="369" customHeight="1" ht="18.75">
-      <c r="A369" s="1"/>
+      <c r="A369" s="3" t="s">
+        <v>187</v>
+      </c>
       <c r="B369" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="370" customHeight="1" ht="18.75">
-      <c r="A370" s="1"/>
+      <c r="A370" s="3" t="s">
+        <v>187</v>
+      </c>
       <c r="B370" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="371" customHeight="1" ht="18.75">
-      <c r="A371" s="1"/>
+      <c r="A371" s="3" t="s">
+        <v>187</v>
+      </c>
       <c r="B371" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="372" customHeight="1" ht="18.75">
-      <c r="A372" s="1"/>
+      <c r="A372" s="3" t="s">
+        <v>187</v>
+      </c>
       <c r="B372" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="373" customHeight="1" ht="18.75">
-      <c r="A373" s="1"/>
+      <c r="A373" s="3" t="s">
+        <v>187</v>
+      </c>
       <c r="B373" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="374" customHeight="1" ht="18.75">
-      <c r="A374" s="1"/>
+      <c r="A374" s="3" t="s">
+        <v>187</v>
+      </c>
       <c r="B374" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="375" customHeight="1" ht="18.75">
-      <c r="A375" s="1"/>
+      <c r="A375" s="3" t="s">
+        <v>187</v>
+      </c>
       <c r="B375" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="376" customHeight="1" ht="18.75">
-      <c r="A376" s="1"/>
+      <c r="A376" s="3" t="s">
+        <v>187</v>
+      </c>
       <c r="B376" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="377" customHeight="1" ht="18.75">
-      <c r="A377" s="1"/>
+      <c r="A377" s="3" t="s">
+        <v>187</v>
+      </c>
       <c r="B377" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="378" customHeight="1" ht="18.75">
-      <c r="A378" s="1"/>
+      <c r="A378" s="3" t="s">
+        <v>187</v>
+      </c>
       <c r="B378" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="379" customHeight="1" ht="18.75">
-      <c r="A379" s="1"/>
+      <c r="A379" s="3" t="s">
+        <v>187</v>
+      </c>
       <c r="B379" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="380" customHeight="1" ht="18.75">
-      <c r="A380" s="1"/>
+      <c r="A380" s="3" t="s">
+        <v>187</v>
+      </c>
       <c r="B380" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="381" customHeight="1" ht="18.75">
-      <c r="A381" s="1"/>
+      <c r="A381" s="3" t="s">
+        <v>187</v>
+      </c>
       <c r="B381" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="382" customHeight="1" ht="18.75">
-      <c r="A382" s="1"/>
+      <c r="A382" s="3" t="s">
+        <v>187</v>
+      </c>
       <c r="B382" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="383" customHeight="1" ht="18.75">
-      <c r="A383" s="1"/>
+      <c r="A383" s="3" t="s">
+        <v>187</v>
+      </c>
       <c r="B383" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="384" customHeight="1" ht="18.75">
-      <c r="A384" s="1"/>
+      <c r="A384" s="3" t="s">
+        <v>187</v>
+      </c>
       <c r="B384" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="385" customHeight="1" ht="18.75">
-      <c r="A385" s="1"/>
+      <c r="A385" s="3" t="s">
+        <v>187</v>
+      </c>
       <c r="B385" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="386" customHeight="1" ht="18.75">
-      <c r="A386" s="1"/>
+      <c r="A386" s="3" t="s">
+        <v>187</v>
+      </c>
       <c r="B386" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="387" customHeight="1" ht="18.75">
-      <c r="A387" s="1"/>
+      <c r="A387" s="3" t="s">
+        <v>187</v>
+      </c>
       <c r="B387" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="388" customHeight="1" ht="18.75">
-      <c r="A388" s="1"/>
+      <c r="A388" s="3" t="s">
+        <v>187</v>
+      </c>
       <c r="B388" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="389" customHeight="1" ht="18.75">
-      <c r="A389" s="1"/>
+      <c r="A389" s="3" t="s">
+        <v>187</v>
+      </c>
       <c r="B389" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="390" customHeight="1" ht="18.75">
-      <c r="A390" s="1"/>
+      <c r="A390" s="3" t="s">
+        <v>187</v>
+      </c>
       <c r="B390" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="391" customHeight="1" ht="18.75">
-      <c r="A391" s="1"/>
+      <c r="A391" s="3" t="s">
+        <v>187</v>
+      </c>
       <c r="B391" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="392" customHeight="1" ht="18.75">
-      <c r="A392" s="1"/>
+      <c r="A392" s="3" t="s">
+        <v>187</v>
+      </c>
       <c r="B392" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="393" customHeight="1" ht="18.75">
-      <c r="A393" s="1"/>
+      <c r="A393" s="3" t="s">
+        <v>187</v>
+      </c>
       <c r="B393" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="394" customHeight="1" ht="18.75">
-      <c r="A394" s="1"/>
+      <c r="A394" s="3" t="s">
+        <v>187</v>
+      </c>
       <c r="B394" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="395" customHeight="1" ht="18.75">
-      <c r="A395" s="1"/>
+      <c r="A395" s="3" t="s">
+        <v>187</v>
+      </c>
       <c r="B395" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="396" customHeight="1" ht="18.75">
-      <c r="A396" s="1"/>
+      <c r="A396" s="3" t="s">
+        <v>187</v>
+      </c>
       <c r="B396" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="397" customHeight="1" ht="18.75">
-      <c r="A397" s="1"/>
+      <c r="A397" s="3" t="s">
+        <v>187</v>
+      </c>
       <c r="B397" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="398" customHeight="1" ht="18.75">
-      <c r="A398" s="1"/>
+      <c r="A398" s="3" t="s">
+        <v>187</v>
+      </c>
       <c r="B398" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="399" customHeight="1" ht="18.75">
